--- a/陈誉航日志.xlsx
+++ b/陈誉航日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17675" windowHeight="8664"/>
+    <workbookView windowWidth="20928" windowHeight="10584"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>日期</t>
   </si>
@@ -79,10 +79,19 @@
     <t>Q3：XXXXXXXXXXXXXXXX</t>
   </si>
   <si>
-    <t>T1：XXXXXXXXXXXXXXXX</t>
-  </si>
-  <si>
-    <t>T2:  XXXXXXXXXXXXXXXX</t>
+    <t>T1：画出5级流水线图</t>
+  </si>
+  <si>
+    <t>T2:  实现ori指令</t>
+  </si>
+  <si>
+    <t>T1：实现更多指令（完成设计了18种指令）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2:  </t>
+  </si>
+  <si>
+    <t>T1：完成设计各类指令的控制信号</t>
   </si>
 </sst>
 </file>
@@ -90,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -124,40 +133,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,22 +173,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,6 +187,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -232,6 +211,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -240,15 +233,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,138 +285,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -420,12 +447,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -445,18 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,17 +490,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,8 +536,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,15 +557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -582,151 +571,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,7 +1090,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1169,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="7">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1212,7 +1221,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1242,45 +1251,85 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="4">
+        <v>44434</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="A14" s="4">
+        <v>44435</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
@@ -1361,13 +1410,17 @@
       <c r="E27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>

--- a/陈誉航日志.xlsx
+++ b/陈誉航日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="10584"/>
+    <workbookView windowWidth="22368" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>T1：完成设计各类指令的控制信号</t>
+  </si>
+  <si>
+    <t>单元测试</t>
+  </si>
+  <si>
+    <t>集体测试</t>
+  </si>
+  <si>
+    <t>流水线设计</t>
+  </si>
+  <si>
+    <t>冲突设计</t>
   </si>
 </sst>
 </file>
@@ -99,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -127,12 +139,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -141,24 +174,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,60 +252,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,187 +297,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +502,32 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,21 +581,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -580,162 +603,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,7 +1102,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1334,28 +1346,36 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>

--- a/陈誉航日志.xlsx
+++ b/陈誉航日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>日期</t>
   </si>
@@ -34,51 +34,18 @@
     <t>T1：学习03MIPS指令格式</t>
   </si>
   <si>
-    <t>Q1：无</t>
-  </si>
-  <si>
-    <t>A1：无</t>
-  </si>
-  <si>
     <t>T2:  学习04基于Mars的MIPS汇编设计</t>
   </si>
   <si>
-    <t>Q2：无</t>
-  </si>
-  <si>
-    <t>A2：Q2的解决办法</t>
-  </si>
-  <si>
     <t>T3:  阅读《自己动手写CPU》第三章</t>
   </si>
   <si>
-    <t>Q3：无</t>
-  </si>
-  <si>
-    <t>A3：Q3的解决办法</t>
-  </si>
-  <si>
     <t>T1：实现单周期MIPS处理器</t>
   </si>
   <si>
-    <t>Q1：XXXXXXXXXXXXXXXX</t>
-  </si>
-  <si>
-    <t>A1：Q1的解决办法</t>
-  </si>
-  <si>
     <t>T2:  阅读《自己动手写CPU》第四章</t>
   </si>
   <si>
-    <t>Q2：XXXXXXXXXXXXXXXX</t>
-  </si>
-  <si>
-    <t>T3:  XXXXXXXXXXXXXXXX</t>
-  </si>
-  <si>
-    <t>Q3：XXXXXXXXXXXXXXXX</t>
-  </si>
-  <si>
     <t>T1：画出5级流水线图</t>
   </si>
   <si>
@@ -88,22 +55,64 @@
     <t>T1：实现更多指令（完成设计了18种指令）</t>
   </si>
   <si>
-    <t xml:space="preserve">T2:  </t>
+    <t>不了解各个指令的通路</t>
+  </si>
+  <si>
+    <t>用纸张画出来</t>
   </si>
   <si>
     <t>T1：完成设计各类指令的控制信号</t>
   </si>
   <si>
-    <t>单元测试</t>
-  </si>
-  <si>
-    <t>集体测试</t>
-  </si>
-  <si>
-    <t>流水线设计</t>
-  </si>
-  <si>
-    <t>冲突设计</t>
+    <t>T1：开始编写单周期CPU</t>
+  </si>
+  <si>
+    <t>不熟悉verilog语言</t>
+  </si>
+  <si>
+    <t>重新复习verilog基本语法</t>
+  </si>
+  <si>
+    <t>T1：继续编写单周期CPU</t>
+  </si>
+  <si>
+    <t>没有单个模块测试，导致最后系统不能运行</t>
+  </si>
+  <si>
+    <t>重新单模块测试</t>
+  </si>
+  <si>
+    <t>T1：休息</t>
+  </si>
+  <si>
+    <t>T1：编写单周期CPU</t>
+  </si>
+  <si>
+    <t>测试结果没有信号</t>
+  </si>
+  <si>
+    <t>T1：跟着《自己动手写CPU》的模板写</t>
+  </si>
+  <si>
+    <t>测试结果没信号</t>
+  </si>
+  <si>
+    <t>需要在simulate的时候添加进去</t>
+  </si>
+  <si>
+    <t>T2:  完成了所有模块的编写与测试</t>
+  </si>
+  <si>
+    <t>T1：完成接口的设计</t>
+  </si>
+  <si>
+    <t>输出结果不一样</t>
+  </si>
+  <si>
+    <t>调试代码成功</t>
+  </si>
+  <si>
+    <t>T2:  编写汇报ppt</t>
   </si>
 </sst>
 </file>
@@ -111,9 +120,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -146,44 +155,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +232,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -275,8 +269,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,187 +306,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,32 +511,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,6 +564,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -603,10 +601,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,134 +633,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -776,9 +785,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1099,10 +1105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1140,12 +1146,8 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="7">
         <v>0.1</v>
       </c>
@@ -1153,27 +1155,19 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
@@ -1181,42 +1175,28 @@
         <v>44432</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
@@ -1224,42 +1204,27 @@
         <v>44433</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="7">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5">
@@ -1267,40 +1232,30 @@
         <v>44434</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
@@ -1308,139 +1263,380 @@
         <v>44435</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>44436</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4">
+        <v>44437</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
+      <c r="D20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4">
+        <v>44438</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4">
+        <v>44439</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4">
+        <v>44440</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4">
+        <v>44441</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4">
+        <v>44442</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4">
+        <v>44443</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4">
+        <v>44444</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
+      <c r="D41" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
+      <c r="E41" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="4">
+        <v>44445</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="4">
+        <v>44446</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="C47" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="32">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E47:E49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
